--- a/系统设计/需求分析/需求列表.xlsx
+++ b/系统设计/需求分析/需求列表.xlsx
@@ -376,10 +376,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -391,114 +391,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,6 +413,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -526,9 +511,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,13 +549,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +639,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +681,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,139 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +821,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -832,15 +867,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,46 +886,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,6 +909,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -926,145 +926,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2893,7 +2893,7 @@
       <c r="TLN8"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:13845">
-      <c r="C9" s="9"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
         <v>54</v>
       </c>
@@ -4386,9 +4386,9 @@
       <c r="E7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="6"/>
       <c r="XEQ7"/>
       <c r="XER7"/>
       <c r="XES7"/>
@@ -4396,14 +4396,14 @@
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="XEQ8"/>
       <c r="XER8"/>
       <c r="XES8"/>
@@ -4411,11 +4411,11 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
       <c r="XEQ9"/>
       <c r="XER9"/>
       <c r="XES9"/>
@@ -4423,11 +4423,11 @@
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
       <c r="XEQ10"/>
       <c r="XER10"/>
       <c r="XES10"/>
@@ -4522,11 +4522,11 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="6"/>
       <c r="XEQ18"/>
       <c r="XER18"/>
       <c r="XES18"/>
@@ -4534,11 +4534,11 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="6"/>
       <c r="XEQ19"/>
       <c r="XER19"/>
       <c r="XES19"/>
@@ -4629,11 +4629,11 @@
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="6"/>
       <c r="XEQ27"/>
       <c r="XER27"/>
       <c r="XES27"/>
@@ -4641,9 +4641,9 @@
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="XEQ28"/>
       <c r="XER28"/>
       <c r="XES28"/>
@@ -4739,7 +4739,7 @@
   <dimension ref="A1:XFD37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="26" customHeight="1"/>
@@ -4805,7 +4805,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
@@ -4899,6 +4899,7 @@
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A12"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
         <v>100</v>
       </c>
@@ -4935,9 +4936,11 @@
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A15"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
+      <c r="E15" s="9"/>
       <c r="XEM15"/>
       <c r="XEN15"/>
       <c r="XEO15"/>
@@ -4947,34 +4950,42 @@
       <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="XEM16"/>
       <c r="XEN16"/>
       <c r="XEO16"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A17"/>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="XEM17"/>
       <c r="XEN17"/>
       <c r="XEO17"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A18"/>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>108</v>
       </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="XEM18"/>
       <c r="XEN18"/>
       <c r="XEO18"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A19"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="9" t="s">
         <v>110</v>
       </c>
       <c r="XEM19"/>

--- a/系统设计/需求分析/需求列表.xlsx
+++ b/系统设计/需求分析/需求列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="整体流程" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>整体流程</t>
   </si>
@@ -170,40 +170,94 @@
     <t>系统</t>
   </si>
   <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>输入/输出</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>必输</t>
+  </si>
+  <si>
+    <t>校验</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>商户号</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>客户扫桌面的二维码</t>
+  </si>
+  <si>
+    <t>台号</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>系统根据商户号查询已有菜单</t>
+  </si>
+  <si>
+    <t>菜名</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>系统根据二维码信息查询数据库显示菜单</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>座位号</t>
+  </si>
+  <si>
+    <t>查看已点</t>
+  </si>
+  <si>
+    <t>查看已点流程1</t>
+  </si>
+  <si>
+    <t>查看已点流程2</t>
+  </si>
+  <si>
     <t>数据</t>
   </si>
   <si>
-    <t>界面元素</t>
-  </si>
-  <si>
-    <t>客户扫桌面的二维码</t>
+    <t>客户点击已点按钮</t>
+  </si>
+  <si>
+    <t>【菜名，数量，价格】 合计菜数量，金额</t>
   </si>
   <si>
     <t>商户号，座位号</t>
   </si>
   <si>
-    <t>系统根据商户号查询已有菜单</t>
-  </si>
-  <si>
-    <t>商户号</t>
-  </si>
-  <si>
-    <t>系统根据二维码信息查询数据库显示菜单</t>
-  </si>
-  <si>
-    <t>【菜名，价格，图片】，商户号，座位号</t>
-  </si>
-  <si>
-    <t>{菜单显示区域 【菜名，价格，图片,数量】，已点按钮，下单按钮}</t>
-  </si>
-  <si>
-    <t>查看已点</t>
-  </si>
-  <si>
-    <t>【菜名，数量，价格】 合计菜数量，金额</t>
-  </si>
-  <si>
-    <t>客户点击已点按钮</t>
+    <t>合计数量</t>
+  </si>
+  <si>
+    <t>合计金额</t>
   </si>
   <si>
     <t>点餐流程</t>
@@ -216,6 +270,12 @@
   </si>
   <si>
     <t>【菜名，数量，价格】 合计菜数量，金额，商户号，座位号</t>
+  </si>
+  <si>
+    <t>返回码</t>
+  </si>
+  <si>
+    <t>返回信息</t>
   </si>
   <si>
     <t>支付流程</t>
@@ -378,8 +438,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -391,7 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +459,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +480,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -435,42 +550,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,30 +587,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -549,31 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,19 +639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,25 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,18 +693,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,37 +705,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +753,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,13 +881,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,16 +905,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -867,6 +931,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,30 +978,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -926,149 +986,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,10 +1156,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1:XFA56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="26" customHeight="1"/>
@@ -1491,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="B2"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
       <c r="XER2"/>
       <c r="XES2"/>
       <c r="XET2"/>
@@ -1525,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1543,7 +1609,7 @@
         <v>8</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1625,7 @@
         <v>10</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1605,7 +1671,7 @@
         <v>16</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1620,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1652,7 +1718,7 @@
         <v>23</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1682,7 +1748,7 @@
         <v>27</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
@@ -2113,7 +2179,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2126,7 +2192,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
@@ -2136,7 +2202,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -2147,11 +2213,11 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2164,12 +2230,12 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8"/>
       <c r="XEW5"/>
@@ -2178,11 +2244,11 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E6" s="8"/>
       <c r="XEW6"/>
@@ -2445,7 +2511,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2458,7 +2524,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
@@ -2468,7 +2534,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -2479,11 +2545,11 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2496,12 +2562,12 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8"/>
       <c r="XEW5"/>
@@ -2510,11 +2576,11 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E6" s="8"/>
       <c r="XEW6"/>
@@ -2747,22 +2813,20 @@
   <sheetPr/>
   <dimension ref="A1:XEY49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="26" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.2416666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" style="1" customWidth="1"/>
-    <col min="10" max="16381" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="14" width="8.925" style="1" customWidth="1"/>
+    <col min="15" max="16381" width="19.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="16377:16379">
@@ -2780,9 +2844,17 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="F2"/>
+      <c r="G2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="XEW2"/>
       <c r="XEX2"/>
       <c r="XEY2"/>
@@ -2798,14 +2870,32 @@
       <c r="D3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3"/>
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G3"/>
-      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="XEW3"/>
       <c r="XEX3"/>
       <c r="XEY3"/>
@@ -2820,8 +2910,19 @@
         <v>30</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="F4"/>
+      <c r="G4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
       <c r="XEW4"/>
       <c r="XEX4"/>
       <c r="XEY4"/>
@@ -2832,15 +2933,21 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="E5" s="8"/>
+      <c r="F5"/>
+      <c r="G5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
       <c r="XEW5"/>
       <c r="XEX5"/>
       <c r="XEY5"/>
@@ -2854,24 +2961,43 @@
         <v>31</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="F6"/>
+      <c r="G6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="XEW6"/>
       <c r="XEX6"/>
       <c r="XEY6"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="3"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="F7"/>
+      <c r="G7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="XEW7"/>
       <c r="XEX7"/>
       <c r="XEY7"/>
@@ -2882,12 +3008,19 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="G8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
       <c r="TLL8"/>
       <c r="TLM8"/>
       <c r="TLN8"/>
@@ -2895,29 +3028,64 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:13845">
       <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="G9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="TLK9"/>
       <c r="TLL9"/>
       <c r="TLM9"/>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="13843:13845">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="7:13845">
+      <c r="G10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
       <c r="TLK10"/>
       <c r="TLL10"/>
       <c r="TLM10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="39" customHeight="1" spans="13843:13845">
+    <row r="11" s="1" customFormat="1" ht="39" customHeight="1" spans="7:13845">
+      <c r="G11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
       <c r="TLK11"/>
       <c r="TLL11"/>
       <c r="TLM11"/>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="13843:13845">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="7:13845">
+      <c r="G12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="TLK12"/>
       <c r="TLL12"/>
       <c r="TLM12"/>
@@ -3108,8 +3276,9 @@
       <c r="TLS49"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:N2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3123,38 +3292,42 @@
   <dimension ref="A1:XEY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G1" sqref="G1:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="26" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" style="1" customWidth="1"/>
-    <col min="10" max="16381" width="19.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="16381" width="19.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1"/>
-      <c r="H1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
       <c r="XEW1"/>
       <c r="XEX1"/>
       <c r="XEY1"/>
@@ -3171,11 +3344,33 @@
         <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="H2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="XEW2"/>
       <c r="XEX2"/>
       <c r="XEY2"/>
@@ -3186,13 +3381,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="G3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
       <c r="XEW3"/>
       <c r="XEX3"/>
       <c r="XEY3"/>
@@ -3203,19 +3408,35 @@
         <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="G4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
       <c r="XEW4"/>
       <c r="XEX4"/>
       <c r="XEY4"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="6:16379">
       <c r="F5" s="3"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="G5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
       <c r="XEW5"/>
       <c r="XEX5"/>
       <c r="XEY5"/>
@@ -3225,13 +3446,23 @@
         <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="G6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="XEW6"/>
       <c r="XEX6"/>
       <c r="XEY6"/>
@@ -3247,11 +3478,19 @@
         <v>47</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="VPU7"/>
       <c r="VPV7"/>
       <c r="VPW7"/>
@@ -3265,6 +3504,16 @@
         <v>30</v>
       </c>
       <c r="E8" s="6"/>
+      <c r="G8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
       <c r="VPU8"/>
       <c r="VPV8"/>
       <c r="VPW8"/>
@@ -3275,13 +3524,23 @@
       </c>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3"/>
+      <c r="G9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="VPU9"/>
       <c r="VPV9"/>
       <c r="VPW9"/>
@@ -3296,6 +3555,16 @@
         <v>31</v>
       </c>
       <c r="E10" s="6"/>
+      <c r="G10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
       <c r="VPU10"/>
       <c r="VPV10"/>
       <c r="VPW10"/>
@@ -3311,6 +3580,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
+      <c r="G11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
       <c r="VPU11"/>
       <c r="VPV11"/>
       <c r="VPW11"/>
@@ -3323,6 +3602,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
+      <c r="G12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="VPU12"/>
       <c r="VPV12"/>
       <c r="VPW12"/>
@@ -3335,8 +3624,18 @@
         <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
       <c r="VPT13"/>
       <c r="VPU13"/>
       <c r="VPV13"/>
@@ -3499,8 +3798,9 @@
       <c r="VPW36"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:N1"/>
     <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3514,18 +3814,19 @@
   <sheetPr/>
   <dimension ref="A1:XEY39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="26" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.375" style="1" customWidth="1"/>
-    <col min="6" max="16376" width="19.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
+    <col min="7" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="16376" width="23.25" style="1" customWidth="1"/>
+    <col min="16377" max="16384" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="16366:16368">
@@ -3539,20 +3840,28 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="G2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="XEW2"/>
       <c r="XEX2"/>
       <c r="XEY2"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
@@ -3562,11 +3871,33 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="H3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="XEW3"/>
       <c r="XEX3"/>
       <c r="XEY3"/>
@@ -3577,15 +3908,23 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="G4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
       <c r="XEW4"/>
       <c r="XEX4"/>
       <c r="XEY4"/>
@@ -3601,8 +3940,18 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="G5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
       <c r="XEW5"/>
       <c r="XEX5"/>
       <c r="XEY5"/>
@@ -3616,8 +3965,16 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="G6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="XEW6"/>
       <c r="XEX6"/>
       <c r="XEY6"/>
@@ -3629,8 +3986,16 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="G7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="XEW7"/>
       <c r="XEX7"/>
       <c r="XEY7"/>
@@ -3638,6 +4003,16 @@
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A8"/>
       <c r="B8"/>
+      <c r="G8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
       <c r="XEQ8"/>
       <c r="XER8"/>
       <c r="XES8"/>
@@ -3645,6 +4020,16 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A9"/>
       <c r="B9"/>
+      <c r="G9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="XEQ9"/>
       <c r="XER9"/>
       <c r="XES9"/>
@@ -3652,6 +4037,16 @@
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A10"/>
       <c r="B10"/>
+      <c r="G10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
       <c r="XEQ10"/>
       <c r="XER10"/>
       <c r="XES10"/>
@@ -3659,6 +4054,16 @@
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A11"/>
       <c r="B11"/>
+      <c r="G11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
       <c r="XEQ11"/>
       <c r="XER11"/>
       <c r="XES11"/>
@@ -3666,6 +4071,16 @@
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A12"/>
       <c r="B12"/>
+      <c r="G12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="XEQ12"/>
       <c r="XER12"/>
       <c r="XES12"/>
@@ -3673,6 +4088,18 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A13"/>
       <c r="B13"/>
+      <c r="G13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
       <c r="XEQ13"/>
       <c r="XER13"/>
       <c r="XES13"/>
@@ -3680,6 +4107,16 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A14"/>
       <c r="B14"/>
+      <c r="G14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
       <c r="XEQ14"/>
       <c r="XER14"/>
       <c r="XES14"/>
@@ -3857,8 +4294,9 @@
       <c r="XEV39"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3899,7 +4337,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3912,7 +4350,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
@@ -3922,7 +4360,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3"/>
@@ -3933,11 +4371,11 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -3950,12 +4388,12 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3"/>
@@ -3970,7 +4408,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="3"/>
@@ -4048,7 +4486,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -4061,7 +4499,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A3" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
@@ -4071,7 +4509,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3"/>
@@ -4082,11 +4520,11 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A4" s="6" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -4099,12 +4537,12 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3"/>
@@ -4116,12 +4554,12 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6"/>
@@ -4246,8 +4684,8 @@
   <sheetPr/>
   <dimension ref="A1:XEY40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I8"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="26" customHeight="1"/>
@@ -4278,13 +4716,13 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2"/>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4294,7 +4732,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
@@ -4304,7 +4742,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="7" t="s">
@@ -4314,7 +4752,7 @@
         <v>47</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="XEW3"/>
       <c r="XEX3"/>
@@ -4322,15 +4760,15 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="D4" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F4"/>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I4" s="8"/>
       <c r="XEW4"/>
@@ -4339,20 +4777,20 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="XEW5"/>
       <c r="XEX5"/>
@@ -4360,19 +4798,19 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="XEW6"/>
       <c r="XEX6"/>
@@ -4380,11 +4818,11 @@
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:16373">
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="6" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4398,7 +4836,7 @@
       <c r="B8"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="6"/>
@@ -4413,7 +4851,7 @@
       <c r="B9"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E9" s="6"/>
       <c r="XEQ9"/>
@@ -4425,7 +4863,7 @@
       <c r="B10"/>
       <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E10" s="6"/>
       <c r="XEQ10"/>
@@ -4435,7 +4873,7 @@
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:16373">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
       <c r="XEQ11"/>
       <c r="XER11"/>
       <c r="XES11"/>
@@ -4444,7 +4882,7 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4462,7 +4900,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="XEQ13"/>
       <c r="XER13"/>
@@ -4473,7 +4911,7 @@
       <c r="B14"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E14" s="8"/>
       <c r="XEQ14"/>
@@ -4484,11 +4922,11 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="XEQ15"/>
       <c r="XER15"/>
@@ -4499,7 +4937,7 @@
       <c r="B16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="XEQ16"/>
       <c r="XER16"/>
@@ -4509,11 +4947,11 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="6" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="XEQ17"/>
       <c r="XER17"/>
@@ -4524,7 +4962,7 @@
       <c r="B18"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E18" s="6"/>
       <c r="XEQ18"/>
@@ -4536,7 +4974,7 @@
       <c r="B19"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E19" s="6"/>
       <c r="XEQ19"/>
@@ -4554,7 +4992,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="5" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -4572,7 +5010,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="XEQ22"/>
       <c r="XER22"/>
@@ -4583,7 +5021,7 @@
       <c r="B23"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E23" s="8"/>
       <c r="XEQ23"/>
@@ -4594,7 +5032,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="8" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -4606,7 +5044,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -4619,7 +5057,7 @@
       <c r="B26"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E26" s="8"/>
       <c r="XEQ26"/>
@@ -4631,7 +5069,7 @@
       <c r="B27"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E27" s="6"/>
       <c r="XEQ27"/>
@@ -4738,8 +5176,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="26" customHeight="1"/>
@@ -4751,7 +5189,8 @@
     <col min="5" max="16376" width="19.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="3:16379">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:16379">
+      <c r="A1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -4763,12 +5202,10 @@
       <c r="XEY1"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:16379">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -4780,9 +5217,7 @@
       <c r="XEY2"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16379">
-      <c r="A3" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="A3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
         <v>6</v>
@@ -4791,7 +5226,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -4801,13 +5236,11 @@
       <c r="XEY3"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16379">
-      <c r="A4" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4"/>
@@ -4818,37 +5251,34 @@
       <c r="XEY4"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16379">
-      <c r="A5" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="XEW5"/>
       <c r="XEX5"/>
       <c r="XEY5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="53" customHeight="1" spans="1:16379">
-      <c r="A6" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="A6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="XEW6"/>
       <c r="XEX6"/>
       <c r="XEY6"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="16371:16373">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:16373">
+      <c r="A7"/>
       <c r="XEQ7"/>
       <c r="XER7"/>
       <c r="XES7"/>
@@ -4871,7 +5301,7 @@
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4891,7 +5321,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="XEM11"/>
       <c r="XEN11"/>
@@ -4899,9 +5329,9 @@
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A12"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="8" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E12" s="8"/>
       <c r="XEM12"/>
@@ -4911,11 +5341,11 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A13"/>
       <c r="C13" s="8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="XEM13"/>
       <c r="XEN13"/>
@@ -4924,11 +5354,11 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A14"/>
       <c r="C14" s="8" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="XEM14"/>
       <c r="XEN14"/>
@@ -4936,11 +5366,11 @@
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="XEM15"/>
       <c r="XEN15"/>
       <c r="XEO15"/>
@@ -4948,45 +5378,45 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A16"/>
       <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="XEM16"/>
       <c r="XEN16"/>
       <c r="XEO16"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A17"/>
-      <c r="C17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="XEM17"/>
       <c r="XEN17"/>
       <c r="XEO17"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A18"/>
-      <c r="C18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="XEM18"/>
       <c r="XEN18"/>
       <c r="XEO18"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:16369">
       <c r="A19"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>110</v>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="XEM19"/>
       <c r="XEN19"/>
@@ -5019,50 +5449,43 @@
       <c r="XER23"/>
       <c r="XES23"/>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:16373">
-      <c r="A24"/>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:16373">
       <c r="B24"/>
       <c r="XEQ24"/>
       <c r="XER24"/>
       <c r="XES24"/>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:16373">
-      <c r="A25"/>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="2:16373">
       <c r="B25"/>
       <c r="XEQ25"/>
       <c r="XER25"/>
       <c r="XES25"/>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:16373">
-      <c r="A26"/>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:16373">
       <c r="B26"/>
       <c r="XEQ26"/>
       <c r="XER26"/>
       <c r="XES26"/>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:16373">
-      <c r="A27"/>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="2:16373">
       <c r="B27"/>
       <c r="XEQ27"/>
       <c r="XER27"/>
       <c r="XES27"/>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:16373">
-      <c r="A28"/>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:16373">
       <c r="B28"/>
       <c r="XEQ28"/>
       <c r="XER28"/>
       <c r="XES28"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:16373">
-      <c r="A29"/>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="2:16373">
       <c r="B29"/>
       <c r="XEQ29"/>
       <c r="XER29"/>
       <c r="XES29"/>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:16373">
-      <c r="A30"/>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="2:16373">
       <c r="B30"/>
       <c r="XEQ30"/>
       <c r="XER30"/>
@@ -5159,7 +5582,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -5172,7 +5595,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
@@ -5182,7 +5605,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -5193,11 +5616,11 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5210,11 +5633,11 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -5224,11 +5647,11 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16379">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E6" s="8"/>
       <c r="XEW6"/>
